--- a/biology/Zoologie/Bolitoglossa_paraensis/Bolitoglossa_paraensis.xlsx
+++ b/biology/Zoologie/Bolitoglossa_paraensis/Bolitoglossa_paraensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bolitoglossa paraensis est une espèce d'urodèles de la famille des Plethodontidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bolitoglossa paraensis est une espèce d'urodèles de la famille des Plethodontidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Pará au Brésil. Elle se rencontre entre 10 et 40 m d'altitude. Sa présence est incertaine dans les États d'Amapá et du Maranhão[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Pará au Brésil. Elle se rencontre entre 10 et 40 m d'altitude. Sa présence est incertaine dans les États d'Amapá et du Maranhão.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eladinea estheri[2] a été placée en synonymie avec Bolitoglossa paraensis par Parker en 1939[3]. 
-Par ailleurs, Bolitoglossa paraensis a été considérée comme synonyme de Bolitoglossa altamazonica de 1963[4] à 2004[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eladinea estheri a été placée en synonymie avec Bolitoglossa paraensis par Parker en 1939. 
+Par ailleurs, Bolitoglossa paraensis a été considérée comme synonyme de Bolitoglossa altamazonica de 1963 à 2004.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, composé de para et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte, l'État du Pará.
 </t>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Unterstein, 1930 : Beschreibung zweier neuer Molche der Gattung Oedipus. Zoologischer Anzeiger, vol. 87, p. 270-272.</t>
         </is>
